--- a/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
+++ b/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,11 +497,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,11 +532,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>375.000€</t>
+          <t>430.000€</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -567,11 +567,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>470.000€</t>
+          <t>490.000€</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -602,11 +602,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>430.000€</t>
+          <t>395.000€</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -637,11 +637,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>490.000€</t>
+          <t>470.000€</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -672,11 +672,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>395.000€</t>
+          <t>375.000€</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -707,11 +707,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -732,23 +732,58 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>380.000€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>aire acondicionado - 2 hab - 2 lavabos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.idealista.com/venta-viviendas/barcelona/eixample/la-sagrada-familia/con-metros-cuadrados-menos-de_100,solo-pisos,de-dos-dormitorios,dos-banos,ascensor,exterior,aireacondicionado,plantas-intermedias,buen-estado/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eixample</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>307.000€</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>aire acondicionado - 2 hab - 2 lavabos</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>45400</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>aire acondicionado - 2 hab - 2 lavabos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://www.idealista.com/venta-viviendas/barcelona/eixample/la-sagrada-familia/con-metros-cuadrados-menos-de_100,solo-pisos,de-dos-dormitorios,dos-banos,ascensor,exterior,aireacondicionado,plantas-intermedias,buen-estado/</t>
         </is>

--- a/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
+++ b/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>430.000€</t>
+          <t>490.000€</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>490.000€</t>
+          <t>470.000€</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>470.000€</t>
+          <t>430.000€</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
+++ b/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>470.000€</t>
+          <t>430.000€</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>395.000€</t>
+          <t>470.000€</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>430.000€</t>
+          <t>395.000€</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
+++ b/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>490.000€</t>
+          <t>470.000€</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>430.000€</t>
+          <t>395.000€</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>470.000€</t>
+          <t>490.000€</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>395.000€</t>
+          <t>430.000€</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
+++ b/pisos-sagrada_familia-2hab-2lav-con_aire-compra.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,11 +497,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,11 +532,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>470.000€</t>
+          <t>395.000€</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -567,11 +567,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>395.000€</t>
+          <t>470.000€</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -602,11 +602,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>490.000€</t>
+          <t>430.000€</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -637,11 +637,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>430.000€</t>
+          <t>490.000€</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -672,11 +672,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -707,11 +707,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -742,11 +742,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -777,13 +777,48 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.idealista.com/venta-viviendas/barcelona/eixample/la-sagrada-familia/con-metros-cuadrados-menos-de_100,solo-pisos,de-dos-dormitorios,dos-banos,ascensor,exterior,aireacondicionado,plantas-intermedias,buen-estado/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eixample</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>390.000€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>aire acondicionado - 2 hab - 2 lavabos</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://www.idealista.com/venta-viviendas/barcelona/eixample/la-sagrada-familia/con-metros-cuadrados-menos-de_100,solo-pisos,de-dos-dormitorios,dos-banos,ascensor,exterior,aireacondicionado,plantas-intermedias,buen-estado/</t>
         </is>
